--- a/data/use/InputData.xlsx
+++ b/data/use/InputData.xlsx
@@ -18981,7 +18981,7 @@
         <v>43282</v>
       </c>
       <c r="F617">
-        <v>971.2000000000001</v>
+        <v>971.2</v>
       </c>
       <c r="G617" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>42917</v>
       </c>
       <c r="F621">
-        <v>963.2000000000001</v>
+        <v>963.2</v>
       </c>
       <c r="G621" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>42552</v>
       </c>
       <c r="F625">
-        <v>919.7000000000001</v>
+        <v>919.7</v>
       </c>
       <c r="G625" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>42186</v>
       </c>
       <c r="F629">
-        <v>885.2000000000001</v>
+        <v>885.2</v>
       </c>
       <c r="G629" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>42095</v>
       </c>
       <c r="F630">
-        <v>885.7000000000001</v>
+        <v>885.7</v>
       </c>
       <c r="G630" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>41000</v>
       </c>
       <c r="F642">
-        <v>874.2000000000001</v>
+        <v>874.2</v>
       </c>
       <c r="G642" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>40909</v>
       </c>
       <c r="F643">
-        <v>883.7000000000001</v>
+        <v>883.7</v>
       </c>
       <c r="G643" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>40817</v>
       </c>
       <c r="F644">
-        <v>957.2000000000001</v>
+        <v>957.2</v>
       </c>
       <c r="G644" t="inlineStr">
         <is>
@@ -19971,7 +19971,7 @@
         <v>40544</v>
       </c>
       <c r="F647">
-        <v>916.7000000000001</v>
+        <v>916.7</v>
       </c>
       <c r="G647" t="inlineStr">
         <is>
